--- a/examples/04_two_state_disability/base_assumption.xlsx
+++ b/examples/04_two_state_disability/base_assumption.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\py\PyMultiState\life_cashflows\data\assumptions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="22515" windowHeight="11070" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="22515" windowHeight="11070" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="MORTALITY (0-&gt;3)" sheetId="1" r:id="rId1"/>
@@ -60,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,7 +108,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -129,9 +124,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,9 +164,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,10 +198,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,10 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -414,19 +407,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:D156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -434,7 +427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -442,7 +435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -453,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -464,7 +457,7 @@
         <v>9.7389999999999994E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -475,7 +468,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -486,7 +479,7 @@
         <v>6.0599999999999998E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -497,7 +490,7 @@
         <v>4.5199999999999998E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -508,7 +501,7 @@
         <v>3.9399999999999998E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -519,7 +512,7 @@
         <v>3.77E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -530,7 +523,7 @@
         <v>3.6099999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -541,7 +534,7 @@
         <v>3.4000000000000002E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -552,7 +545,7 @@
         <v>3.1599999999999998E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -563,7 +556,7 @@
         <v>2.9300000000000002E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -574,7 +567,7 @@
         <v>2.7900000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -585,7 +578,7 @@
         <v>2.7599999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -596,7 +589,7 @@
         <v>2.8299999999999999E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -607,7 +600,7 @@
         <v>3.0899999999999998E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -618,7 +611,7 @@
         <v>3.7599999999999998E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -629,7 +622,7 @@
         <v>4.9399999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -640,7 +633,7 @@
         <v>6.6E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>17</v>
       </c>
@@ -651,7 +644,7 @@
         <v>8.6600000000000002E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -662,7 +655,7 @@
         <v>1.0809999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -673,7 +666,7 @@
         <v>1.1969999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -684,7 +677,7 @@
         <v>1.23E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>21</v>
       </c>
@@ -695,7 +688,7 @@
         <v>1.217E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>22</v>
       </c>
@@ -706,7 +699,7 @@
         <v>1.189E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>23</v>
       </c>
@@ -717,7 +710,7 @@
         <v>1.16E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>24</v>
       </c>
@@ -728,7 +721,7 @@
         <v>1.1379999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>25</v>
       </c>
@@ -739,7 +732,7 @@
         <v>1.1249999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>26</v>
       </c>
@@ -750,7 +743,7 @@
         <v>1.1249999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>27</v>
       </c>
@@ -761,7 +754,7 @@
         <v>1.139E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>28</v>
       </c>
@@ -772,7 +765,7 @@
         <v>1.168E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>29</v>
       </c>
@@ -783,7 +776,7 @@
         <v>1.2099999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>30</v>
       </c>
@@ -794,7 +787,7 @@
         <v>1.2600000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>31</v>
       </c>
@@ -805,7 +798,7 @@
         <v>1.3159999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>32</v>
       </c>
@@ -816,7 +809,7 @@
         <v>1.379E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>33</v>
       </c>
@@ -827,7 +820,7 @@
         <v>1.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>34</v>
       </c>
@@ -838,7 +831,7 @@
         <v>1.5330000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>35</v>
       </c>
@@ -849,7 +842,7 @@
         <v>1.632E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>36</v>
       </c>
@@ -860,7 +853,7 @@
         <v>1.7459999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>37</v>
       </c>
@@ -871,7 +864,7 @@
         <v>1.8760000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>38</v>
       </c>
@@ -882,7 +875,7 @@
         <v>2.0249999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>39</v>
       </c>
@@ -893,7 +886,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>40</v>
       </c>
@@ -904,7 +897,7 @@
         <v>2.4009999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>41</v>
       </c>
@@ -915,7 +908,7 @@
         <v>2.6380000000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>42</v>
       </c>
@@ -926,7 +919,7 @@
         <v>2.885E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>43</v>
       </c>
@@ -937,7 +930,7 @@
         <v>3.166E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>44</v>
       </c>
@@ -948,7 +941,7 @@
         <v>3.4819999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>45</v>
       </c>
@@ -959,7 +952,7 @@
         <v>3.8319999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>46</v>
       </c>
@@ -970,7 +963,7 @@
         <v>4.2259999999999997E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>47</v>
       </c>
@@ -981,7 +974,7 @@
         <v>4.6569999999999997E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>48</v>
       </c>
@@ -992,7 +985,7 @@
         <v>5.1469999999999997E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>49</v>
       </c>
@@ -1003,7 +996,7 @@
         <v>5.6959999999999997E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>50</v>
       </c>
@@ -1014,7 +1007,7 @@
         <v>6.3090000000000004E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>51</v>
       </c>
@@ -1025,7 +1018,7 @@
         <v>6.9950000000000003E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>52</v>
       </c>
@@ -1036,7 +1029,7 @@
         <v>7.7590000000000003E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>53</v>
       </c>
@@ -1047,7 +1040,7 @@
         <v>8.6119999999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>54</v>
       </c>
@@ -1058,7 +1051,7 @@
         <v>9.528E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>55</v>
       </c>
@@ -1069,7 +1062,7 @@
         <v>1.0501E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>56</v>
       </c>
@@ -1080,7 +1073,7 @@
         <v>1.1532000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>57</v>
       </c>
@@ -1091,7 +1084,7 @@
         <v>1.2635E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>58</v>
       </c>
@@ -1102,7 +1095,7 @@
         <v>1.3816999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>59</v>
       </c>
@@ -1113,7 +1106,7 @@
         <v>1.5094E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>60</v>
       </c>
@@ -1124,7 +1117,7 @@
         <v>1.6472000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>61</v>
       </c>
@@ -1135,7 +1128,7 @@
         <v>1.7964999999999998E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>62</v>
       </c>
@@ -1146,7 +1139,7 @@
         <v>1.9585000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>63</v>
       </c>
@@ -1157,7 +1150,7 @@
         <v>2.1339E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>64</v>
       </c>
@@ -1168,7 +1161,7 @@
         <v>2.3231999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>65</v>
       </c>
@@ -1179,7 +1172,7 @@
         <v>2.5302000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>66</v>
       </c>
@@ -1190,7 +1183,7 @@
         <v>2.7618E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>67</v>
       </c>
@@ -1201,7 +1194,7 @@
         <v>3.0234E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>68</v>
       </c>
@@ -1212,7 +1205,7 @@
         <v>3.3300999999999997E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>69</v>
       </c>
@@ -1223,7 +1216,7 @@
         <v>3.6658000000000003E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>70</v>
       </c>
@@ -1234,7 +1227,7 @@
         <v>4.0306000000000002E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>71</v>
       </c>
@@ -1245,7 +1238,7 @@
         <v>4.4298999999999998E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>72</v>
       </c>
@@ -1256,7 +1249,7 @@
         <v>4.8701000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>73</v>
       </c>
@@ -1267,7 +1260,7 @@
         <v>5.3712000000000003E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>74</v>
       </c>
@@ -1278,7 +1271,7 @@
         <v>5.9290000000000002E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>75</v>
       </c>
@@ -1289,7 +1282,7 @@
         <v>6.5457000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>76</v>
       </c>
@@ -1300,7 +1293,7 @@
         <v>7.2193999999999994E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>77</v>
       </c>
@@ -1311,7 +1304,7 @@
         <v>7.9507999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>78</v>
       </c>
@@ -1322,7 +1315,7 @@
         <v>8.7415000000000007E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>79</v>
       </c>
@@ -1333,7 +1326,7 @@
         <v>9.5945000000000003E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>80</v>
       </c>
@@ -1344,7 +1337,7 @@
         <v>0.105119</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>81</v>
       </c>
@@ -1355,7 +1348,7 @@
         <v>0.11494799999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>82</v>
       </c>
@@ -1366,7 +1359,7 @@
         <v>0.125449</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>83</v>
       </c>
@@ -1377,7 +1370,7 @@
         <v>0.13664699999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>84</v>
       </c>
@@ -1388,7 +1381,7 @@
         <v>0.148564</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>85</v>
       </c>
@@ -1399,7 +1392,7 @@
         <v>0.16122600000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>86</v>
       </c>
@@ -1410,7 +1403,7 @@
         <v>0.17466899999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>87</v>
       </c>
@@ -1421,7 +1414,7 @@
         <v>0.18895799999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>88</v>
       </c>
@@ -1432,7 +1425,7 @@
         <v>0.204124</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>89</v>
       </c>
@@ -1443,7 +1436,7 @@
         <v>0.22018399999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>90</v>
       </c>
@@ -1454,7 +1447,7 @@
         <v>0.237094</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>91</v>
       </c>
@@ -1465,7 +1458,7 @@
         <v>0.25503900000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>92</v>
       </c>
@@ -1476,7 +1469,7 @@
         <v>0.27396500000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>93</v>
       </c>
@@ -1487,7 +1480,7 @@
         <v>0.29405500000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>94</v>
       </c>
@@ -1498,7 +1491,7 @@
         <v>0.31564399999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>95</v>
       </c>
@@ -1509,7 +1502,7 @@
         <v>0.33837400000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>96</v>
       </c>
@@ -1520,7 +1513,7 @@
         <v>0.36330099999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>97</v>
       </c>
@@ -1531,7 +1524,7 @@
         <v>0.39174399999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>98</v>
       </c>
@@ -1542,7 +1535,7 @@
         <v>0.42243799999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>99</v>
       </c>
@@ -1553,7 +1546,7 @@
         <v>0.45457900000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>100</v>
       </c>
@@ -1564,7 +1557,7 @@
         <v>0.49265100000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>101</v>
       </c>
@@ -1577,7 +1570,7 @@
         <v>0.49265100000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>102</v>
       </c>
@@ -1590,7 +1583,7 @@
         <v>0.49265100000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>103</v>
       </c>
@@ -1603,7 +1596,7 @@
         <v>0.49265100000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>104</v>
       </c>
@@ -1616,7 +1609,7 @@
         <v>0.49265100000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>105</v>
       </c>
@@ -1629,7 +1622,7 @@
         <v>0.49265100000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>106</v>
       </c>
@@ -1642,7 +1635,7 @@
         <v>0.49265100000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>107</v>
       </c>
@@ -1655,7 +1648,7 @@
         <v>0.49265100000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>108</v>
       </c>
@@ -1668,7 +1661,7 @@
         <v>0.49265100000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>109</v>
       </c>
@@ -1681,7 +1674,7 @@
         <v>0.49265100000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>110</v>
       </c>
@@ -1693,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>111</v>
       </c>
@@ -1705,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>112</v>
       </c>
@@ -1717,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>113</v>
       </c>
@@ -1729,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119">
         <v>114</v>
       </c>
@@ -1741,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>115</v>
       </c>
@@ -1752,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121">
         <v>116</v>
       </c>
@@ -1763,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122">
         <v>117</v>
       </c>
@@ -1774,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>118</v>
       </c>
@@ -1785,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124">
         <v>119</v>
       </c>
@@ -1803,19 +1796,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1823,7 +1816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1831,12 +1824,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" s="1">
         <v>0.01</v>
       </c>
@@ -1847,19 +1840,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1867,7 +1860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1875,12 +1868,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -1888,7 +1881,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -1896,7 +1889,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2024</v>
       </c>
@@ -1904,7 +1897,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>2025</v>
       </c>
@@ -1912,7 +1905,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2026</v>
       </c>
@@ -1920,7 +1913,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2027</v>
       </c>
@@ -1928,7 +1921,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>2028</v>
       </c>
@@ -1936,7 +1929,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>2029</v>
       </c>
@@ -1944,7 +1937,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>2030</v>
       </c>
@@ -1952,7 +1945,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>2031</v>
       </c>
@@ -1960,7 +1953,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>2032</v>
       </c>
@@ -1968,7 +1961,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>2033</v>
       </c>
@@ -1976,7 +1969,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>2034</v>
       </c>
@@ -1984,7 +1977,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>2035</v>
       </c>
@@ -1992,7 +1985,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>2036</v>
       </c>
@@ -2000,7 +1993,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>2037</v>
       </c>
@@ -2008,7 +2001,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>2038</v>
       </c>
@@ -2016,7 +2009,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>2039</v>
       </c>
@@ -2024,7 +2017,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>2040</v>
       </c>
@@ -2032,7 +2025,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>2041</v>
       </c>
@@ -2040,7 +2033,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>2042</v>
       </c>
@@ -2048,7 +2041,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>2043</v>
       </c>
@@ -2056,7 +2049,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>2044</v>
       </c>
@@ -2064,7 +2057,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>2045</v>
       </c>
@@ -2072,7 +2065,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>2046</v>
       </c>
@@ -2080,7 +2073,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>2047</v>
       </c>
@@ -2088,7 +2081,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>2048</v>
       </c>
@@ -2096,7 +2089,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>2049</v>
       </c>
@@ -2104,7 +2097,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>2050</v>
       </c>
@@ -2112,7 +2105,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>2051</v>
       </c>
@@ -2120,7 +2113,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>2052</v>
       </c>
@@ -2128,7 +2121,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>2053</v>
       </c>
@@ -2136,7 +2129,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>2054</v>
       </c>
@@ -2144,7 +2137,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>2055</v>
       </c>
@@ -2152,7 +2145,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>2056</v>
       </c>
@@ -2160,7 +2153,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>2057</v>
       </c>
@@ -2168,7 +2161,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>2058</v>
       </c>
@@ -2176,7 +2169,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>2059</v>
       </c>
@@ -2184,7 +2177,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>2060</v>
       </c>
@@ -2192,7 +2185,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>2061</v>
       </c>
@@ -2200,7 +2193,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>2062</v>
       </c>
@@ -2208,7 +2201,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>2063</v>
       </c>
@@ -2216,7 +2209,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>2064</v>
       </c>
@@ -2224,7 +2217,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>2065</v>
       </c>
@@ -2232,7 +2225,7 @@
         <v>7.0000000000000097E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>2066</v>
       </c>
@@ -2240,7 +2233,7 @@
         <v>6.0000000000000097E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>2067</v>
       </c>
@@ -2248,7 +2241,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>2068</v>
       </c>
@@ -2256,7 +2249,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>2069</v>
       </c>
@@ -2264,7 +2257,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>2070</v>
       </c>
@@ -2272,7 +2265,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>2071</v>
       </c>
@@ -2280,7 +2273,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>2072</v>
       </c>
@@ -2288,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>2073</v>
       </c>
@@ -2296,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>2074</v>
       </c>
@@ -2304,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>2075</v>
       </c>
@@ -2312,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>2076</v>
       </c>
@@ -2320,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>2077</v>
       </c>
@@ -2328,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>2078</v>
       </c>
@@ -2336,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>2079</v>
       </c>
@@ -2344,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>2080</v>
       </c>
@@ -2352,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>2081</v>
       </c>
@@ -2360,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>2082</v>
       </c>
@@ -2368,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>2083</v>
       </c>
@@ -2376,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>2084</v>
       </c>
@@ -2384,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>2085</v>
       </c>
@@ -2392,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>2086</v>
       </c>
@@ -2400,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>2087</v>
       </c>
@@ -2408,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>2088</v>
       </c>
@@ -2416,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>2089</v>
       </c>
@@ -2424,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>2090</v>
       </c>
@@ -2432,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>2091</v>
       </c>
@@ -2440,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>2092</v>
       </c>
@@ -2448,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>2093</v>
       </c>
@@ -2456,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>2094</v>
       </c>
@@ -2464,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>2095</v>
       </c>
@@ -2472,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>2096</v>
       </c>
@@ -2480,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>2097</v>
       </c>
@@ -2488,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>2098</v>
       </c>
@@ -2496,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>2099</v>
       </c>
@@ -2504,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>2100</v>
       </c>
@@ -2512,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>2101</v>
       </c>
@@ -2520,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>2102</v>
       </c>
@@ -2528,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>2103</v>
       </c>
@@ -2536,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>2104</v>
       </c>
@@ -2544,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>2105</v>
       </c>
@@ -2552,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>2106</v>
       </c>
@@ -2560,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>2107</v>
       </c>
@@ -2568,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>2108</v>
       </c>
@@ -2576,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>2109</v>
       </c>
@@ -2584,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>2110</v>
       </c>
@@ -2592,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>2111</v>
       </c>
@@ -2600,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>2112</v>
       </c>
@@ -2608,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>2113</v>
       </c>
@@ -2616,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>2114</v>
       </c>
@@ -2624,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>2115</v>
       </c>
@@ -2632,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>2116</v>
       </c>
@@ -2640,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>2117</v>
       </c>
@@ -2648,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>2118</v>
       </c>
@@ -2656,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>2119</v>
       </c>
@@ -2664,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>2120</v>
       </c>
@@ -2672,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>2121</v>
       </c>
@@ -2680,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>2122</v>
       </c>
@@ -2688,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>2123</v>
       </c>
@@ -2696,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>2124</v>
       </c>
@@ -2704,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>2125</v>
       </c>
@@ -2712,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>2126</v>
       </c>
@@ -2720,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>2127</v>
       </c>
@@ -2728,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>2128</v>
       </c>
@@ -2736,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>2129</v>
       </c>
@@ -2744,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>2130</v>
       </c>
@@ -2752,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>2131</v>
       </c>
@@ -2760,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>2132</v>
       </c>
@@ -2768,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>2133</v>
       </c>
@@ -2776,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>2134</v>
       </c>
@@ -2784,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>2135</v>
       </c>
@@ -2792,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>2136</v>
       </c>
@@ -2800,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>2137</v>
       </c>
@@ -2808,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>2138</v>
       </c>
@@ -2816,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>2139</v>
       </c>
@@ -2824,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>2140</v>
       </c>
@@ -2832,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>2141</v>
       </c>
@@ -2840,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>2142</v>
       </c>
@@ -2848,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>2143</v>
       </c>
@@ -2856,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>2144</v>
       </c>
@@ -2864,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>2145</v>
       </c>
@@ -2872,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>2146</v>
       </c>
@@ -2880,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>2147</v>
       </c>
@@ -2888,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>2148</v>
       </c>
@@ -2896,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>2149</v>
       </c>
@@ -2904,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>2150</v>
       </c>
@@ -2912,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>2151</v>
       </c>
@@ -2920,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>2152</v>
       </c>
@@ -2928,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>2153</v>
       </c>
@@ -2936,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>2154</v>
       </c>
@@ -2944,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>2155</v>
       </c>
@@ -2952,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>2156</v>
       </c>
@@ -2960,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>2157</v>
       </c>
@@ -2968,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>2158</v>
       </c>
@@ -2976,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>2159</v>
       </c>
@@ -2984,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>2160</v>
       </c>
@@ -2992,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>2161</v>
       </c>
@@ -3000,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>2162</v>
       </c>
@@ -3008,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>2163</v>
       </c>
@@ -3016,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>2164</v>
       </c>
@@ -3024,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>2165</v>
       </c>
@@ -3032,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>2166</v>
       </c>
@@ -3040,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>2167</v>
       </c>
@@ -3048,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>2168</v>
       </c>
@@ -3056,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152">
         <v>2169</v>
       </c>
@@ -3064,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153">
         <v>2170</v>
       </c>
@@ -3072,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154">
         <v>2171</v>
       </c>
@@ -3086,19 +3079,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A124"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:C161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3106,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3114,12 +3107,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3127,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3135,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3143,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3151,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3159,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3167,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3175,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -3183,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -3191,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -3199,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -3207,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>11</v>
       </c>
@@ -3215,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>12</v>
       </c>
@@ -3223,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>13</v>
       </c>
@@ -3231,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>14</v>
       </c>
@@ -3239,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>15</v>
       </c>
@@ -3247,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>16</v>
       </c>
@@ -3255,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>17</v>
       </c>
@@ -3263,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>18</v>
       </c>
@@ -3271,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>19</v>
       </c>
@@ -3279,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>20</v>
       </c>
@@ -3287,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>21</v>
       </c>
@@ -3295,7 +3288,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>22</v>
       </c>
@@ -3303,7 +3296,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>23</v>
       </c>
@@ -3311,7 +3304,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>24</v>
       </c>
@@ -3319,7 +3312,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>25</v>
       </c>
@@ -3327,7 +3320,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>26</v>
       </c>
@@ -3335,7 +3328,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>27</v>
       </c>
@@ -3343,7 +3336,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>28</v>
       </c>
@@ -3351,7 +3344,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>29</v>
       </c>
@@ -3359,7 +3352,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>30</v>
       </c>
@@ -3367,7 +3360,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>31</v>
       </c>
@@ -3375,7 +3368,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>32</v>
       </c>
@@ -3383,7 +3376,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>33</v>
       </c>
@@ -3391,7 +3384,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>34</v>
       </c>
@@ -3399,7 +3392,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>35</v>
       </c>
@@ -3407,7 +3400,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>36</v>
       </c>
@@ -3415,7 +3408,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>37</v>
       </c>
@@ -3423,7 +3416,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>38</v>
       </c>
@@ -3431,7 +3424,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>39</v>
       </c>
@@ -3439,7 +3432,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>40</v>
       </c>
@@ -3447,7 +3440,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>41</v>
       </c>
@@ -3455,7 +3448,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>42</v>
       </c>
@@ -3463,7 +3456,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>43</v>
       </c>
@@ -3471,7 +3464,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>44</v>
       </c>
@@ -3479,7 +3472,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>45</v>
       </c>
@@ -3487,7 +3480,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>46</v>
       </c>
@@ -3495,7 +3488,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>47</v>
       </c>
@@ -3503,7 +3496,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>48</v>
       </c>
@@ -3511,7 +3504,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>49</v>
       </c>
@@ -3519,7 +3512,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>50</v>
       </c>
@@ -3527,7 +3520,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>51</v>
       </c>
@@ -3535,7 +3528,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>52</v>
       </c>
@@ -3543,7 +3536,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>53</v>
       </c>
@@ -3551,7 +3544,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>54</v>
       </c>
@@ -3559,7 +3552,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>55</v>
       </c>
@@ -3567,7 +3560,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>56</v>
       </c>
@@ -3575,7 +3568,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>57</v>
       </c>
@@ -3583,7 +3576,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>58</v>
       </c>
@@ -3591,7 +3584,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>59</v>
       </c>
@@ -3599,7 +3592,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>60</v>
       </c>
@@ -3607,7 +3600,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>61</v>
       </c>
@@ -3615,7 +3608,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>62</v>
       </c>
@@ -3623,7 +3616,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>63</v>
       </c>
@@ -3631,7 +3624,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>64</v>
       </c>
@@ -3639,7 +3632,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>65</v>
       </c>
@@ -3647,7 +3640,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>66</v>
       </c>
@@ -3655,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>67</v>
       </c>
@@ -3663,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>68</v>
       </c>
@@ -3671,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>69</v>
       </c>
@@ -3679,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>70</v>
       </c>
@@ -3687,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>71</v>
       </c>
@@ -3695,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>72</v>
       </c>
@@ -3703,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>73</v>
       </c>
@@ -3711,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>74</v>
       </c>
@@ -3719,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>75</v>
       </c>
@@ -3727,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>76</v>
       </c>
@@ -3735,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>77</v>
       </c>
@@ -3743,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>78</v>
       </c>
@@ -3751,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>79</v>
       </c>
@@ -3759,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>80</v>
       </c>
@@ -3767,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>81</v>
       </c>
@@ -3775,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>82</v>
       </c>
@@ -3783,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>83</v>
       </c>
@@ -3791,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>84</v>
       </c>
@@ -3799,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>85</v>
       </c>
@@ -3807,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>86</v>
       </c>
@@ -3815,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>87</v>
       </c>
@@ -3823,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>88</v>
       </c>
@@ -3831,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>89</v>
       </c>
@@ -3839,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>90</v>
       </c>
@@ -3847,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>91</v>
       </c>
@@ -3855,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>92</v>
       </c>
@@ -3863,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>93</v>
       </c>
@@ -3871,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>94</v>
       </c>
@@ -3879,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>95</v>
       </c>
@@ -3887,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>96</v>
       </c>
@@ -3895,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>97</v>
       </c>
@@ -3903,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>98</v>
       </c>
@@ -3911,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>99</v>
       </c>
@@ -3919,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>100</v>
       </c>
@@ -3927,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>101</v>
       </c>
@@ -3935,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>102</v>
       </c>
@@ -3943,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>103</v>
       </c>
@@ -3951,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>104</v>
       </c>
@@ -3959,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>105</v>
       </c>
@@ -3967,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>106</v>
       </c>
@@ -3975,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>107</v>
       </c>
@@ -3983,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>108</v>
       </c>
@@ -3991,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>109</v>
       </c>
@@ -3999,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>110</v>
       </c>
@@ -4007,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>111</v>
       </c>
@@ -4015,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>112</v>
       </c>
@@ -4023,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>113</v>
       </c>
@@ -4031,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>114</v>
       </c>
@@ -4039,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>115</v>
       </c>
@@ -4047,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>116</v>
       </c>
@@ -4055,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>117</v>
       </c>
@@ -4063,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>118</v>
       </c>
@@ -4071,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>119</v>
       </c>
@@ -4085,19 +4078,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4105,7 +4098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4113,7 +4106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -4124,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="B5" s="1">
         <v>0.2</v>
       </c>
@@ -4139,19 +4132,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4159,7 +4152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4167,12 +4160,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -4180,7 +4173,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -4194,19 +4187,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4214,7 +4207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4222,12 +4215,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" s="1">
         <v>0.2</v>
       </c>
@@ -4238,19 +4231,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:B157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4258,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4266,12 +4259,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4279,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4287,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4295,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4303,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4311,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4319,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4327,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -4335,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -4343,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -4351,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -4359,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>11</v>
       </c>
@@ -4367,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>12</v>
       </c>
@@ -4375,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>13</v>
       </c>
@@ -4383,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>14</v>
       </c>
@@ -4391,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>15</v>
       </c>
@@ -4399,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>16</v>
       </c>
@@ -4407,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>17</v>
       </c>
@@ -4415,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>18</v>
       </c>
@@ -4423,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>19</v>
       </c>
@@ -4431,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>20</v>
       </c>
@@ -4439,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>21</v>
       </c>
@@ -4447,7 +4440,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>22</v>
       </c>
@@ -4455,7 +4448,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>23</v>
       </c>
@@ -4463,7 +4456,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>24</v>
       </c>
@@ -4471,7 +4464,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>25</v>
       </c>
@@ -4479,7 +4472,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>26</v>
       </c>
@@ -4487,7 +4480,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>27</v>
       </c>
@@ -4495,7 +4488,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>28</v>
       </c>
@@ -4503,7 +4496,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>29</v>
       </c>
@@ -4511,7 +4504,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>30</v>
       </c>
@@ -4519,7 +4512,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>31</v>
       </c>
@@ -4527,7 +4520,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>32</v>
       </c>
@@ -4535,7 +4528,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>33</v>
       </c>
@@ -4543,7 +4536,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>34</v>
       </c>
@@ -4551,7 +4544,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>35</v>
       </c>
@@ -4559,7 +4552,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>36</v>
       </c>
@@ -4567,7 +4560,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>37</v>
       </c>
@@ -4575,7 +4568,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>38</v>
       </c>
@@ -4583,7 +4576,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>39</v>
       </c>
@@ -4591,7 +4584,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>40</v>
       </c>
@@ -4599,7 +4592,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>41</v>
       </c>
@@ -4607,7 +4600,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>42</v>
       </c>
@@ -4615,7 +4608,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>43</v>
       </c>
@@ -4623,7 +4616,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>44</v>
       </c>
@@ -4631,7 +4624,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>45</v>
       </c>
@@ -4639,7 +4632,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>46</v>
       </c>
@@ -4647,7 +4640,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>47</v>
       </c>
@@ -4655,7 +4648,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>48</v>
       </c>
@@ -4663,7 +4656,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>49</v>
       </c>
@@ -4671,7 +4664,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>50</v>
       </c>
@@ -4679,7 +4672,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>51</v>
       </c>
@@ -4687,7 +4680,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>52</v>
       </c>
@@ -4695,7 +4688,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>53</v>
       </c>
@@ -4703,7 +4696,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>54</v>
       </c>
@@ -4711,7 +4704,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>55</v>
       </c>
@@ -4719,7 +4712,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>56</v>
       </c>
@@ -4727,7 +4720,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>57</v>
       </c>
@@ -4735,7 +4728,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>58</v>
       </c>
@@ -4743,7 +4736,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>59</v>
       </c>
@@ -4751,7 +4744,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>60</v>
       </c>
@@ -4759,7 +4752,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>61</v>
       </c>
@@ -4767,7 +4760,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>62</v>
       </c>
@@ -4775,7 +4768,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>63</v>
       </c>
@@ -4783,7 +4776,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>64</v>
       </c>
@@ -4791,7 +4784,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>65</v>
       </c>
@@ -4799,7 +4792,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>66</v>
       </c>
@@ -4807,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>67</v>
       </c>
@@ -4815,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>68</v>
       </c>
@@ -4823,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>69</v>
       </c>
@@ -4831,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>70</v>
       </c>
@@ -4839,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>71</v>
       </c>
@@ -4847,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>72</v>
       </c>
@@ -4855,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>73</v>
       </c>
@@ -4863,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>74</v>
       </c>
@@ -4871,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>75</v>
       </c>
@@ -4879,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>76</v>
       </c>
@@ -4887,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>77</v>
       </c>
@@ -4895,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>78</v>
       </c>
@@ -4903,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>79</v>
       </c>
@@ -4911,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>80</v>
       </c>
@@ -4919,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>81</v>
       </c>
@@ -4927,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>82</v>
       </c>
@@ -4935,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>83</v>
       </c>
@@ -4943,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>84</v>
       </c>
@@ -4951,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>85</v>
       </c>
@@ -4959,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>86</v>
       </c>
@@ -4967,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>87</v>
       </c>
@@ -4975,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>88</v>
       </c>
@@ -4983,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>89</v>
       </c>
@@ -4991,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>90</v>
       </c>
@@ -4999,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>91</v>
       </c>
@@ -5007,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>92</v>
       </c>
@@ -5015,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>93</v>
       </c>
@@ -5023,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>94</v>
       </c>
@@ -5031,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>95</v>
       </c>
@@ -5039,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>96</v>
       </c>
@@ -5047,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>97</v>
       </c>
@@ -5055,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>98</v>
       </c>
@@ -5063,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>99</v>
       </c>
@@ -5071,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>100</v>
       </c>
@@ -5079,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>101</v>
       </c>
@@ -5087,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>102</v>
       </c>
@@ -5095,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>103</v>
       </c>
@@ -5103,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>104</v>
       </c>
@@ -5111,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>105</v>
       </c>
@@ -5119,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>106</v>
       </c>
@@ -5127,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>107</v>
       </c>
@@ -5135,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>108</v>
       </c>
@@ -5143,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>109</v>
       </c>
@@ -5151,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>110</v>
       </c>
@@ -5159,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>111</v>
       </c>
@@ -5167,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>112</v>
       </c>
@@ -5175,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>113</v>
       </c>
@@ -5183,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>114</v>
       </c>
@@ -5191,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>115</v>
       </c>
@@ -5199,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>116</v>
       </c>
@@ -5207,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>117</v>
       </c>
@@ -5215,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>118</v>
       </c>
@@ -5223,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>119</v>
       </c>
@@ -5237,19 +5230,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -5257,7 +5250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5265,12 +5258,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" s="1">
         <v>0.1</v>
       </c>
@@ -5281,19 +5274,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -5301,7 +5294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5309,12 +5302,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" s="1">
         <v>0.2</v>
       </c>

--- a/examples/04_two_state_disability/base_assumption.xlsx
+++ b/examples/04_two_state_disability/base_assumption.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="22515" windowHeight="11070" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="22515" windowHeight="11070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MORTALITY (0-&gt;3)" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DIS_DEATH2 (2-&gt;3)" sheetId="10" r:id="rId9"/>
     <sheet name="REC2(2-&gt;0)" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1799,7 +1799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1841,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:B155"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="1">
         <v>0.05</v>
@@ -1883,407 +1883,407 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2023</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4.9000000000000002E-2</v>
+        <v>2022</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>2024</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>2023</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>2025</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4.7E-2</v>
+        <v>2024</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>2026</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>2025</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>2027</v>
-      </c>
-      <c r="B10" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>2026</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>2028</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4.3999999999999997E-2</v>
+        <v>2027</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>2029</v>
-      </c>
-      <c r="B12" s="4">
-        <v>4.2999999999999997E-2</v>
+        <v>2028</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>2030</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>2029</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>2031</v>
-      </c>
-      <c r="B14" s="4">
-        <v>4.1000000000000002E-2</v>
+        <v>2030</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>2032</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.04</v>
+        <v>2031</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>2033</v>
-      </c>
-      <c r="B16" s="4">
-        <v>3.9E-2</v>
+        <v>2032</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>2034</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>2033</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>2035</v>
-      </c>
-      <c r="B18" s="4">
-        <v>3.6999999999999998E-2</v>
+        <v>2034</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>2036</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>2035</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>2037</v>
-      </c>
-      <c r="B20" s="4">
-        <v>3.5000000000000003E-2</v>
+        <v>2036</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>2038</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>2037</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>2039</v>
-      </c>
-      <c r="B22" s="4">
-        <v>3.3000000000000002E-2</v>
+        <v>2038</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>2040</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>2039</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>2041</v>
-      </c>
-      <c r="B24" s="4">
-        <v>3.1E-2</v>
+        <v>2040</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>2042</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.03</v>
+        <v>2041</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>2043</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2.9000000000000001E-2</v>
+        <v>2042</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.03</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>2044</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2043</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>2045</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2.7E-2</v>
+        <v>2044</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>2046</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>2045</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>2047</v>
-      </c>
-      <c r="B30" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>2046</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>2048</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2.4E-2</v>
+        <v>2047</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>2049</v>
-      </c>
-      <c r="B32" s="4">
-        <v>2.3E-2</v>
+        <v>2048</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>2050</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>2049</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>2051</v>
-      </c>
-      <c r="B34" s="4">
-        <v>2.1000000000000001E-2</v>
+        <v>2050</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>2052</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0.02</v>
+        <v>2051</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>2053</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1.9E-2</v>
+        <v>2052</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.02</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>2054</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>2053</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>2055</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>2054</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>2056</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1.6E-2</v>
+        <v>2055</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>2057</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>2056</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>2058</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1.4E-2</v>
+        <v>2057</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>2059</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1.2999999999999999E-2</v>
+        <v>2058</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>2060</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1.2E-2</v>
+        <v>2059</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>2061</v>
-      </c>
-      <c r="B44" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>2060</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>2062</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.01</v>
+        <v>2061</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>2063</v>
-      </c>
-      <c r="B46" s="4">
-        <v>8.9999999999999993E-3</v>
+        <v>2062</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>2064</v>
-      </c>
-      <c r="B47" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>2063</v>
+      </c>
+      <c r="B47" s="4">
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>2065</v>
-      </c>
-      <c r="B48" s="4">
-        <v>7.0000000000000097E-3</v>
+        <v>2064</v>
+      </c>
+      <c r="B48" s="1">
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>2066</v>
-      </c>
-      <c r="B49" s="1">
-        <v>6.0000000000000097E-3</v>
+        <v>2065</v>
+      </c>
+      <c r="B49" s="4">
+        <v>7.0000000000000097E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>2067</v>
-      </c>
-      <c r="B50" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>2066</v>
+      </c>
+      <c r="B50" s="1">
+        <v>6.0000000000000097E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>2068</v>
-      </c>
-      <c r="B51" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>2067</v>
+      </c>
+      <c r="B51" s="4">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>2069</v>
-      </c>
-      <c r="B52" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>2068</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>2070</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2E-3</v>
+        <v>2069</v>
+      </c>
+      <c r="B53" s="4">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>2071</v>
-      </c>
-      <c r="B54" s="4">
-        <v>1E-3</v>
+        <v>2070</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>2072</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0</v>
+        <v>2071</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B105" s="1">
         <v>0</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B106" s="1">
         <v>0</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B108" s="1">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B112" s="1">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B114" s="1">
         <v>0</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B117" s="1">
         <v>0</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B118" s="1">
         <v>0</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B120" s="1">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B121" s="1">
         <v>0</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B122" s="1">
         <v>0</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B125" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B127" s="1">
         <v>0</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B130" s="1">
         <v>0</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B132" s="1">
         <v>0</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B135" s="1">
         <v>0</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B136" s="1">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B137" s="1">
         <v>0</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B138" s="1">
         <v>0</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B139" s="1">
         <v>0</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B140" s="1">
         <v>0</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B142" s="1">
         <v>0</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B143" s="1">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B145" s="1">
         <v>0</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B146" s="1">
         <v>0</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B147" s="1">
         <v>0</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B148" s="1">
         <v>0</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B149" s="1">
         <v>0</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B150" s="1">
         <v>0</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B151" s="1">
         <v>0</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B152" s="1">
         <v>0</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B153" s="1">
         <v>0</v>
@@ -3067,9 +3067,17 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
+        <v>2170</v>
+      </c>
+      <c r="B154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
         <v>2171</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B155" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4234,7 +4242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A125" sqref="A125:B157"/>
     </sheetView>
   </sheetViews>
